--- a/TestCaseSheet.xlsx
+++ b/TestCaseSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcman\eclipse-workspace\MercedesBenzProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDC43D4-DF13-4829-9137-9067E30BF14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA102D4B-15DD-4EE4-92B5-DE864AF84E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="525" windowWidth="19695" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>selectBodyType</t>
-  </si>
-  <si>
     <t>TestCase</t>
   </si>
   <si>
@@ -52,46 +49,37 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>Used to select a body type</t>
-  </si>
-  <si>
-    <t>selectFirstVehicle</t>
-  </si>
-  <si>
-    <t>Used to select first vehicle from filtered search</t>
-  </si>
-  <si>
-    <t>selectContactMe</t>
-  </si>
-  <si>
-    <t>Used to select the contact details</t>
-  </si>
-  <si>
-    <t>enterContactDetails</t>
-  </si>
-  <si>
-    <t>Used to enter the contact details</t>
-  </si>
-  <si>
-    <t>verifyProccedBtnDisabled</t>
-  </si>
-  <si>
-    <t>To verify whether proceed button is disabled</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
-    <t>Sedan</t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
-    <t>Harry,Potter,harry@gmail.com,+66912345678,Samle Comment</t>
+    <t xml:space="preserve">                                                                                                         </t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>selectCategoryMobile</t>
+  </si>
+  <si>
+    <t>selectCategoryMobileAccessories</t>
+  </si>
+  <si>
+    <t>selectcolorGray</t>
+  </si>
+  <si>
+    <t>selectPtronPride</t>
+  </si>
+  <si>
+    <t>selectAddToCart</t>
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -464,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,113 +488,137 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B30265-1C25-4C8F-939C-DB10A78714EB}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.42578125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="43.28515625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="43.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/TestCaseSheet.xlsx
+++ b/TestCaseSheet.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>TestCase Name</t>
   </si>
